--- a/Mifos Automation Excels/Client/486-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/486-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
+    <sheet name="Input" sheetId="9" r:id="rId1"/>
     <sheet name="Summary" sheetId="13" r:id="rId2"/>
     <sheet name="Repayment Schedule" sheetId="17" r:id="rId3"/>
     <sheet name="Transactions" sheetId="18" r:id="rId4"/>
@@ -17,17 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
-  <si>
-    <t>click</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>makerepayment</t>
   </si>
   <si>
-    <t>transactiondate</t>
-  </si>
-  <si>
     <t>Repayment</t>
   </si>
   <si>
@@ -101,6 +95,21 @@
   </si>
   <si>
     <t>Loan Balance</t>
+  </si>
+  <si>
+    <t>clickonmakerepayment</t>
+  </si>
+  <si>
+    <t>repaymenttransactiondate</t>
+  </si>
+  <si>
+    <t>Entry ID</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Head Office</t>
   </si>
 </sst>
 </file>
@@ -155,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -177,6 +186,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,9 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -493,15 +515,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2">
         <v>42019</v>
@@ -517,7 +539,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -531,23 +553,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -635,10 +657,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -658,52 +680,54 @@
     <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="C2" s="8">
         <v>42005</v>
@@ -727,7 +751,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -768,11 +792,11 @@
       <c r="N3" s="5">
         <v>0</v>
       </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -811,11 +835,11 @@
       <c r="N4" s="5">
         <v>0</v>
       </c>
-      <c r="O4" s="5">
+      <c r="Q4" s="5">
         <v>884.25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -854,11 +878,11 @@
       <c r="N5" s="5">
         <v>0</v>
       </c>
-      <c r="O5" s="5">
+      <c r="Q5" s="5">
         <v>917.2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -897,11 +921,11 @@
       <c r="N6" s="5">
         <v>0</v>
       </c>
-      <c r="O6" s="5">
+      <c r="Q6" s="5">
         <v>926.19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -940,11 +964,11 @@
       <c r="N7" s="5">
         <v>0</v>
       </c>
-      <c r="O7" s="5">
+      <c r="Q7" s="5">
         <v>898.53</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -983,11 +1007,11 @@
       <c r="N8" s="5">
         <v>0</v>
       </c>
-      <c r="O8" s="5">
+      <c r="Q8" s="5">
         <v>892.21</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1026,11 +1050,11 @@
       <c r="N9" s="5">
         <v>0</v>
       </c>
-      <c r="O9" s="5">
+      <c r="Q9" s="5">
         <v>882.09</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1069,11 +1093,11 @@
       <c r="N10" s="5">
         <v>0</v>
       </c>
-      <c r="O10" s="5">
+      <c r="Q10" s="5">
         <v>875.23</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1112,11 +1136,11 @@
       <c r="N11" s="5">
         <v>0</v>
       </c>
-      <c r="O11" s="5">
+      <c r="Q11" s="5">
         <v>866.73</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1155,11 +1179,11 @@
       <c r="N12" s="5">
         <v>0</v>
       </c>
-      <c r="O12" s="5">
+      <c r="Q12" s="5">
         <v>857.44</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1198,11 +1222,11 @@
       <c r="N13" s="5">
         <v>0</v>
       </c>
-      <c r="O13" s="5">
+      <c r="Q13" s="5">
         <v>849.75</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1241,7 +1265,7 @@
       <c r="N14" s="5">
         <v>0</v>
       </c>
-      <c r="O14" s="5">
+      <c r="Q14" s="5">
         <v>785.15</v>
       </c>
     </row>
@@ -1255,7 +1279,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1270,82 +1294,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="11">
+        <v>2622</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12">
         <v>42019</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="D2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11">
         <v>935.25</v>
       </c>
-      <c r="D2" s="5">
+      <c r="F2" s="11">
         <v>889.22</v>
       </c>
-      <c r="E2" s="5">
+      <c r="G2" s="11">
         <v>46.03</v>
       </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
         <v>9110.7800000000007</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="11">
+        <v>2621</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="12">
         <v>42005</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="D3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14">
         <v>10000</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
         <v>10000</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/486-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/486-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -115,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -212,6 +217,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -259,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,9 +300,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,6 +352,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -659,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -676,8 +718,9 @@
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -718,10 +761,10 @@
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="s">
         <v>10</v>
@@ -750,6 +793,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
@@ -789,7 +833,8 @@
       <c r="M3" s="5">
         <v>0</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5">
         <v>0</v>
       </c>
       <c r="Q3" s="5">
@@ -832,7 +877,8 @@
       <c r="M4" s="5">
         <v>0</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5">
         <v>0</v>
       </c>
       <c r="Q4" s="5">
@@ -875,7 +921,8 @@
       <c r="M5" s="5">
         <v>0</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5">
         <v>0</v>
       </c>
       <c r="Q5" s="5">
@@ -918,7 +965,8 @@
       <c r="M6" s="5">
         <v>0</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5">
         <v>0</v>
       </c>
       <c r="Q6" s="5">
@@ -961,7 +1009,8 @@
       <c r="M7" s="5">
         <v>0</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5">
         <v>0</v>
       </c>
       <c r="Q7" s="5">
@@ -1004,7 +1053,8 @@
       <c r="M8" s="5">
         <v>0</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5">
         <v>0</v>
       </c>
       <c r="Q8" s="5">
@@ -1047,7 +1097,8 @@
       <c r="M9" s="5">
         <v>0</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5">
         <v>0</v>
       </c>
       <c r="Q9" s="5">
@@ -1090,7 +1141,8 @@
       <c r="M10" s="5">
         <v>0</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5">
         <v>0</v>
       </c>
       <c r="Q10" s="5">
@@ -1133,7 +1185,8 @@
       <c r="M11" s="5">
         <v>0</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5">
         <v>0</v>
       </c>
       <c r="Q11" s="5">
@@ -1176,7 +1229,8 @@
       <c r="M12" s="5">
         <v>0</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="5"/>
+      <c r="O12" s="5">
         <v>0</v>
       </c>
       <c r="Q12" s="5">
@@ -1219,7 +1273,8 @@
       <c r="M13" s="5">
         <v>0</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="5"/>
+      <c r="O13" s="5">
         <v>0</v>
       </c>
       <c r="Q13" s="5">
@@ -1262,7 +1317,8 @@
       <c r="M14" s="5">
         <v>0</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5">
         <v>0</v>
       </c>
       <c r="Q14" s="5">
@@ -1278,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/486-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/486-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-EarlyRePayment-Makerepayment1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
@@ -120,14 +115,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <i/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -135,6 +125,23 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -169,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -182,16 +189,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -206,6 +207,24 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -267,7 +286,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,26 +319,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,23 +354,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -581,7 +566,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -702,7 +687,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -717,616 +702,633 @@
     <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="C2" s="8">
+      <c r="B2" s="5"/>
+      <c r="C2" s="14">
         <v>42005</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="G2" s="3">
+      <c r="F2" s="5"/>
+      <c r="G2" s="15">
         <v>10000</v>
       </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="16">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="16">
+        <v>0</v>
+      </c>
+      <c r="L2" s="16">
+        <v>0</v>
+      </c>
+      <c r="M2" s="16"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="16">
         <v>14</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="14">
         <v>42019</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="14">
         <v>42019</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="5">
+      <c r="E3" s="17"/>
+      <c r="F3" s="16">
         <v>889.22</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="18">
         <v>9110.7800000000007</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="16">
         <v>46.03</v>
       </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
+        <v>46.03</v>
+      </c>
+      <c r="L3" s="16">
         <v>935.25</v>
       </c>
-      <c r="L3" s="5">
-        <v>935.25</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5">
+      <c r="M3" s="16"/>
+      <c r="N3" s="16">
+        <v>889.22</v>
+      </c>
+      <c r="O3" s="16">
+        <v>0</v>
+      </c>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="16">
         <v>17</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="14">
         <v>42036</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5">
+      <c r="F4" s="16">
         <v>833.33</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="18">
         <v>8277.4500000000007</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="16">
         <v>50.92</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0</v>
+      </c>
+      <c r="K4" s="16">
         <v>884.25</v>
       </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5">
+      <c r="L4" s="16">
+        <v>0</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16">
+        <v>0</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16">
         <v>884.25</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="16">
         <v>28</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="14">
         <v>42064</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="F5" s="16">
         <v>833.33</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="18">
         <v>7444.12</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="16">
         <v>83.87</v>
       </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
         <v>917.2</v>
       </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5">
+      <c r="L5" s="16">
+        <v>0</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16">
         <v>917.2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="16">
         <v>31</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="14">
         <v>42095</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5">
+      <c r="F6" s="16">
         <v>833.33</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="18">
         <v>6610.79</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="16">
         <v>92.86</v>
       </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
         <v>926.19</v>
       </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5">
+      <c r="L6" s="16">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16">
         <v>926.19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="16">
         <v>30</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="14">
         <v>42125</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5">
+      <c r="F7" s="16">
         <v>833.33</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="18">
         <v>5777.46</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="16">
         <v>65.2</v>
       </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
         <v>898.53</v>
       </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5">
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16">
         <v>898.53</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="16">
         <v>31</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="14">
         <v>42156</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5">
+      <c r="F8" s="16">
         <v>833.33</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="18">
         <v>4944.13</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="16">
         <v>58.88</v>
       </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
         <v>892.21</v>
       </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5">
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16">
         <v>892.21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="16">
         <v>30</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="14">
         <v>42186</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5">
+      <c r="F9" s="16">
         <v>833.33</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="18">
         <v>4110.8</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="16">
         <v>48.76</v>
       </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
         <v>882.09</v>
       </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16">
         <v>882.09</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="16">
         <v>31</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="14">
         <v>42217</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5">
+      <c r="F10" s="16">
         <v>833.33</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="18">
         <v>3277.47</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="16">
         <v>41.9</v>
       </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
         <v>875.23</v>
       </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="5">
+      <c r="L10" s="16">
+        <v>0</v>
+      </c>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16">
         <v>875.23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="16">
         <v>31</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="14">
         <v>42248</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5">
+      <c r="F11" s="16">
         <v>833.33</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="18">
         <v>2444.14</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="16">
         <v>33.4</v>
       </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
         <v>866.73</v>
       </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="5">
+      <c r="L11" s="16">
+        <v>0</v>
+      </c>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16">
         <v>866.73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="16">
         <v>30</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="14">
         <v>42278</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5">
+      <c r="F12" s="16">
         <v>833.33</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="18">
         <v>1610.81</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="16">
         <v>24.11</v>
       </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
         <v>857.44</v>
       </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="5">
+      <c r="L12" s="16">
+        <v>0</v>
+      </c>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16">
         <v>857.44</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="16">
         <v>31</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="14">
         <v>42309</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5">
+      <c r="F13" s="16">
         <v>833.33</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="16">
         <v>777.48</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="16">
         <v>16.420000000000002</v>
       </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
+      <c r="I13" s="16">
+        <v>0</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16">
         <v>849.75</v>
       </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="5">
+      <c r="L13" s="16">
+        <v>0</v>
+      </c>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16">
+        <v>0</v>
+      </c>
+      <c r="O13" s="16">
+        <v>0</v>
+      </c>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16">
         <v>849.75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="16">
         <v>30</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="14">
         <v>42339</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5">
+      <c r="F14" s="16">
         <v>777.48</v>
       </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
         <v>7.67</v>
       </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
         <v>785.15</v>
       </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="5">
+      <c r="L14" s="16">
+        <v>0</v>
+      </c>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16">
+        <v>0</v>
+      </c>
+      <c r="O14" s="16">
+        <v>0</v>
+      </c>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16">
         <v>785.15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1350,10 +1352,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -1382,66 +1384,66 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>2622</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>42019</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <v>935.25</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="9">
         <v>889.22</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="9">
         <v>46.03</v>
       </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13">
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
         <v>9110.7800000000007</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2621</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>42005</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>10000</v>
       </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="14">
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
         <v>10000</v>
       </c>
     </row>
